--- a/ToDoLists.xlsx
+++ b/ToDoLists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -559,6 +559,35 @@
   </si>
   <si>
     <t>Mounting ESP-WROOM-02 on DE0CV+DEOCM and making it usable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXDOS2 (MegaSDHC ver) を使っているときに、新10倍カートリッジでSDカードを読みに行くとSDカード内容が破壊される。</t>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ハカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -720,6 +749,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -727,8 +758,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1297,8 +1326,8 @@
   </sheetPr>
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1315,12 +1344,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
@@ -1384,10 +1413,10 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1453,7 +1482,7 @@
       <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -1499,10 +1528,10 @@
       <c r="F11" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1522,10 +1551,10 @@
       <c r="F12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1545,10 +1574,10 @@
       <c r="F13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1575,7 +1604,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="135" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>11</v>
       </c>
@@ -1768,11 +1797,21 @@
       <c r="B24" s="6">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
   </sheetData>

--- a/ToDoLists.xlsx
+++ b/ToDoLists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -587,6 +587,13 @@
     </rPh>
     <rPh sb="64" eb="66">
       <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1GT BIOS で起動後、BASICから CALL MWP するとハングアップする。</t>
+    <rPh sb="11" eb="14">
+      <t>キドウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1324,10 +1331,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,6 +1820,27 @@
         <v>144</v>
       </c>
       <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="6">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ToDoLists.xlsx
+++ b/ToDoLists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -595,6 +595,10 @@
     <rPh sb="11" eb="14">
       <t>キドウゴ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fixed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1333,8 +1337,8 @@
   </sheetPr>
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1720,22 +1724,24 @@
       <c r="B20" s="6">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="12" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="6">

--- a/ToDoLists.xlsx
+++ b/ToDoLists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -361,10 +361,6 @@
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -419,10 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2020-Aug-11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,10 +449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2021-Feb-25</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,10 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2021-June-xx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -506,10 +490,6 @@
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -599,6 +579,110 @@
   </si>
   <si>
     <t>Fixed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-Sept-11th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound Mixer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源投入時に「プッ」と音がする。これを低減する。</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウニュウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OPL3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADPCMに非対応。ただし、SDRAM帯域は使いたくないので、存在するフリだけ。（PCM対応ソフトがフリーズする問題の対策）</t>
+    <rPh sb="6" eb="9">
+      <t>ヒタイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイイキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOSKOW で不具合。</t>
+    <rPh sb="8" eb="11">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MegaSCC-I の Ch.E ミラー領域 98A0h-98BFh が、本来リードオンリーなところ、書き込めてしまう。</t>
+    <rPh sb="20" eb="22">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-Nov-20th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MegaSCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -736,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -762,6 +846,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1335,10 +1420,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1355,12 +1440,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
@@ -1393,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>1</v>
@@ -1405,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -1416,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -1425,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -1485,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>21</v>
@@ -1531,7 +1616,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>51</v>
@@ -1543,7 +1628,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
@@ -1554,7 +1639,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>92</v>
@@ -1566,7 +1651,7 @@
         <v>93</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
@@ -1577,7 +1662,7 @@
         <v>91</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>92</v>
@@ -1589,7 +1674,7 @@
         <v>94</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1600,19 +1685,19 @@
         <v>97</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -1622,17 +1707,15 @@
       <c r="C15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -1643,17 +1726,15 @@
       <c r="C16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -1662,19 +1743,17 @@
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1683,19 +1762,17 @@
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -1704,19 +1781,17 @@
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="G19" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -1725,22 +1800,20 @@
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="H20" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -1748,19 +1821,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -1769,19 +1840,17 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -1790,19 +1859,17 @@
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -1813,17 +1880,15 @@
       <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1834,19 +1899,81 @@
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ToDoLists.xlsx
+++ b/ToDoLists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="160">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -666,10 +666,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>High</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,6 +679,32 @@
   </si>
   <si>
     <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-Nov-27th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i8251</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス宣言に文法エラー。</t>
+    <rPh sb="6" eb="8">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fixed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -820,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -854,6 +876,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1420,10 +1445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1945,12 +1970,12 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>148</v>
@@ -1959,21 +1984,37 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>149</v>
       </c>
       <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ToDoLists.xlsx
+++ b/ToDoLists.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -705,6 +705,17 @@
   </si>
   <si>
     <t>Fixed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LD A,I や LD A,R でフラグが更新されないバグ</t>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -842,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -869,6 +880,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -876,7 +890,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1445,10 +1462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1465,12 +1482,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="129.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
@@ -2012,8 +2029,26 @@
       <c r="G30" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="14" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
